--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_2070.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_2070.xlsx
@@ -448,13 +448,13 @@
         <v>10150.6049214053</v>
       </c>
       <c r="G3" t="n">
-        <v>12909.3249296211</v>
+        <v>13940.9792263223</v>
       </c>
       <c r="H3" t="n">
-        <v>10616.2139770064</v>
+        <v>11297.1058128292</v>
       </c>
       <c r="I3" t="n">
-        <v>9325.28148404427</v>
+        <v>9903.00789019696</v>
       </c>
     </row>
     <row r="4">
@@ -477,13 +477,13 @@
         <v>3502.44514859989</v>
       </c>
       <c r="G4" t="n">
-        <v>4454.33575846351</v>
+        <v>4810.30593112719</v>
       </c>
       <c r="H4" t="n">
-        <v>3663.1025863153</v>
+        <v>3898.04290027333</v>
       </c>
       <c r="I4" t="n">
-        <v>3217.66901046895</v>
+        <v>3417.01230716061</v>
       </c>
     </row>
     <row r="5">
@@ -506,13 +506,13 @@
         <v>964.368988352528</v>
       </c>
       <c r="G5" t="n">
-        <v>1238.16213146351</v>
+        <v>1390.76631290348</v>
       </c>
       <c r="H5" t="n">
-        <v>966.101856346901</v>
+        <v>1066.82061609728</v>
       </c>
       <c r="I5" t="n">
-        <v>842.28564320055</v>
+        <v>927.743984806935</v>
       </c>
     </row>
     <row r="6">
@@ -535,13 +535,13 @@
         <v>675.05829184677</v>
       </c>
       <c r="G6" t="n">
-        <v>866.713492024458</v>
+        <v>973.536419032438</v>
       </c>
       <c r="H6" t="n">
-        <v>676.271299442831</v>
+        <v>746.774431268098</v>
       </c>
       <c r="I6" t="n">
-        <v>589.599950240385</v>
+        <v>649.420789364854</v>
       </c>
     </row>
     <row r="7">
@@ -564,13 +564,13 @@
         <v>2325.20078302776</v>
       </c>
       <c r="G7" t="n">
-        <v>2985.34647252869</v>
+        <v>3353.29211000062</v>
       </c>
       <c r="H7" t="n">
-        <v>2329.37892030308</v>
+        <v>2572.22304103456</v>
       </c>
       <c r="I7" t="n">
-        <v>2030.84427305022</v>
+        <v>2236.8938300345</v>
       </c>
     </row>
     <row r="8">
@@ -593,13 +593,13 @@
         <v>2140.3831463666</v>
       </c>
       <c r="G8" t="n">
-        <v>2722.09407461659</v>
+        <v>2939.63140235551</v>
       </c>
       <c r="H8" t="n">
-        <v>2238.56269163713</v>
+        <v>2382.13732794481</v>
       </c>
       <c r="I8" t="n">
-        <v>1966.35328417547</v>
+        <v>2088.17418770926</v>
       </c>
     </row>
     <row r="9">
@@ -622,13 +622,13 @@
         <v>1157.24278602303</v>
       </c>
       <c r="G9" t="n">
-        <v>1485.79455775621</v>
+        <v>1668.91957548418</v>
       </c>
       <c r="H9" t="n">
-        <v>1159.32222761628</v>
+        <v>1280.18473931674</v>
       </c>
       <c r="I9" t="n">
-        <v>1010.74277184066</v>
+        <v>1113.29278176832</v>
       </c>
     </row>
     <row r="10">
@@ -651,13 +651,13 @@
         <v>160.728164725421</v>
       </c>
       <c r="G10" t="n">
-        <v>206.360355243918</v>
+        <v>231.794385483914</v>
       </c>
       <c r="H10" t="n">
-        <v>161.016976057817</v>
+        <v>177.803436016214</v>
       </c>
       <c r="I10" t="n">
-        <v>140.380940533425</v>
+        <v>154.623997467822</v>
       </c>
     </row>
     <row r="11">
@@ -680,13 +680,13 @@
         <v>51110.3978932147</v>
       </c>
       <c r="G11" t="n">
-        <v>65646.9663945372</v>
+        <v>73855.4885252919</v>
       </c>
       <c r="H11" t="n">
-        <v>51108.2768280646</v>
+        <v>56525.9014343627</v>
       </c>
       <c r="I11" t="n">
-        <v>44543.5801886109</v>
+        <v>49140.3525818335</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>35708.054510045</v>
       </c>
       <c r="G12" t="n">
-        <v>45863.9641063415</v>
+        <v>51598.8119606724</v>
       </c>
       <c r="H12" t="n">
-        <v>35706.5726372144</v>
+        <v>39491.5722210728</v>
       </c>
       <c r="I12" t="n">
-        <v>31120.1762265803</v>
+        <v>34331.6910250056</v>
       </c>
     </row>
     <row r="13">
@@ -738,13 +738,13 @@
         <v>11320.1572986623</v>
       </c>
       <c r="G13" t="n">
-        <v>14553.8692999797</v>
+        <v>16437.6751243554</v>
       </c>
       <c r="H13" t="n">
-        <v>11268.4995691597</v>
+        <v>12511.8114132476</v>
       </c>
       <c r="I13" t="n">
-        <v>9813.11263916169</v>
+        <v>10868.0439008121</v>
       </c>
     </row>
     <row r="14">
@@ -767,13 +767,13 @@
         <v>12967.493621975</v>
       </c>
       <c r="G14" t="n">
-        <v>16671.7831160216</v>
+        <v>18829.7248626012</v>
       </c>
       <c r="H14" t="n">
-        <v>12908.3185363135</v>
+        <v>14332.5600890561</v>
       </c>
       <c r="I14" t="n">
-        <v>11241.1402247113</v>
+        <v>12449.5876027959</v>
       </c>
     </row>
     <row r="15">
@@ -796,13 +796,13 @@
         <v>9841.77854697129</v>
       </c>
       <c r="G15" t="n">
-        <v>12653.1774137884</v>
+        <v>14290.9638208016</v>
       </c>
       <c r="H15" t="n">
-        <v>9796.86716273956</v>
+        <v>10877.8061913683</v>
       </c>
       <c r="I15" t="n">
-        <v>8531.54942136073</v>
+        <v>9448.70980928812</v>
       </c>
     </row>
     <row r="16">
@@ -825,13 +825,13 @@
         <v>31003.7143926048</v>
       </c>
       <c r="G16" t="n">
-        <v>39860.2241275565</v>
+        <v>45019.6027659586</v>
       </c>
       <c r="H16" t="n">
-        <v>30862.2338946388</v>
+        <v>34267.4237959842</v>
       </c>
       <c r="I16" t="n">
-        <v>26876.2114818831</v>
+        <v>29765.4635193883</v>
       </c>
     </row>
     <row r="17">
@@ -854,13 +854,13 @@
         <v>8025.48465203667</v>
       </c>
       <c r="G17" t="n">
-        <v>10318.0416678961</v>
+        <v>11653.5756478639</v>
       </c>
       <c r="H17" t="n">
-        <v>7988.861634852</v>
+        <v>8870.31406163078</v>
       </c>
       <c r="I17" t="n">
-        <v>6957.05746806239</v>
+        <v>7704.95649684439</v>
       </c>
     </row>
     <row r="18">
@@ -883,13 +883,13 @@
         <v>25554.832707801</v>
       </c>
       <c r="G18" t="n">
-        <v>32854.8168898797</v>
+        <v>37107.4382471457</v>
       </c>
       <c r="H18" t="n">
-        <v>25438.2173109761</v>
+        <v>28244.9474067717</v>
       </c>
       <c r="I18" t="n">
-        <v>22152.7356219882</v>
+        <v>24534.2035820571</v>
       </c>
     </row>
     <row r="19">
@@ -912,13 +912,13 @@
         <v>72.6929506513802</v>
       </c>
       <c r="G19" t="n">
-        <v>92.2845334389355</v>
+        <v>98.9034773542497</v>
       </c>
       <c r="H19" t="n">
-        <v>76.6262488630224</v>
+        <v>80.9947518471298</v>
       </c>
       <c r="I19" t="n">
-        <v>67.3977955191289</v>
+        <v>71.1044041117048</v>
       </c>
     </row>
     <row r="20">
@@ -941,13 +941,13 @@
         <v>7687.56950879302</v>
       </c>
       <c r="G20" t="n">
-        <v>9883.5978081952</v>
+        <v>11162.8987784802</v>
       </c>
       <c r="H20" t="n">
-        <v>7652.48851338455</v>
+        <v>8496.82715377264</v>
       </c>
       <c r="I20" t="n">
-        <v>6664.12873256503</v>
+        <v>7380.53727592462</v>
       </c>
     </row>
     <row r="21">

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_2070.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_2070.xlsx
@@ -23,22 +23,22 @@
     <t xml:space="preserve">MI_SA_PCDD_2070</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_ETInc_2070</t>
+    <t xml:space="preserve">MI_SA_ET15_2070</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDec_ETInc_2070</t>
+    <t xml:space="preserve">MI_SA_PCDec_ET15_2070</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDD_ETInc_2070</t>
+    <t xml:space="preserve">MI_SA_PCDD_ET15_2070</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_ETDec_2070</t>
+    <t xml:space="preserve">MI_SA_ETLow_2070</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDec_ETDec_2070</t>
+    <t xml:space="preserve">MI_SA_PCDec_ETLow_2070</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDD_ETDec_2070</t>
+    <t xml:space="preserve">MI_SA_PCDD_ETLow_2070</t>
   </si>
 </sst>
 </file>

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_2070.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_2070.xlsx
@@ -23,22 +23,22 @@
     <t xml:space="preserve">MI_SA_PCDD_2070</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_ET15_2070</t>
+    <t xml:space="preserve">MI_SA_HighET_2070</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDec_ET15_2070</t>
+    <t xml:space="preserve">MI_SA_PCDec_HighET_2070</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDD_ET15_2070</t>
+    <t xml:space="preserve">MI_SA_PCDD_HighET_2070</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_ETLow_2070</t>
+    <t xml:space="preserve">MI_SA_LowET_2070</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDec_ETLow_2070</t>
+    <t xml:space="preserve">MI_SA_PCDec_LowET_2070</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDD_ETLow_2070</t>
+    <t xml:space="preserve">MI_SA_PCDD_LowET_2070</t>
   </si>
 </sst>
 </file>

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_2070.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_2070.xlsx
@@ -439,13 +439,13 @@
         <v>9737.94320272476</v>
       </c>
       <c r="D3" t="n">
-        <v>14383.1167820514</v>
+        <v>14137.4848066464</v>
       </c>
       <c r="E3" t="n">
-        <v>11588.9165996104</v>
+        <v>11426.7994958431</v>
       </c>
       <c r="F3" t="n">
-        <v>10150.6049214053</v>
+        <v>10013.0510151784</v>
       </c>
       <c r="G3" t="n">
         <v>13940.9792263223</v>
@@ -468,13 +468,13 @@
         <v>3360.05707953442</v>
       </c>
       <c r="D4" t="n">
-        <v>4962.86457655449</v>
+        <v>4878.10977353932</v>
       </c>
       <c r="E4" t="n">
-        <v>3998.73160625534</v>
+        <v>3942.79343626534</v>
       </c>
       <c r="F4" t="n">
-        <v>3502.44514859989</v>
+        <v>3454.9824589114</v>
       </c>
       <c r="G4" t="n">
         <v>4810.30593112719</v>
@@ -497,13 +497,13 @@
         <v>903.327315776539</v>
       </c>
       <c r="D5" t="n">
-        <v>1456.16810494919</v>
+        <v>1419.83377603491</v>
       </c>
       <c r="E5" t="n">
-        <v>1109.98579884745</v>
+        <v>1086.00514176402</v>
       </c>
       <c r="F5" t="n">
-        <v>964.368988352528</v>
+        <v>944.021764160532</v>
       </c>
       <c r="G5" t="n">
         <v>1390.76631290348</v>
@@ -526,13 +526,13 @@
         <v>632.329121043577</v>
       </c>
       <c r="D6" t="n">
-        <v>1019.31767346443</v>
+        <v>993.883643224435</v>
       </c>
       <c r="E6" t="n">
-        <v>776.990059193212</v>
+        <v>760.203599234816</v>
       </c>
       <c r="F6" t="n">
-        <v>675.05829184677</v>
+        <v>660.815234912372</v>
       </c>
       <c r="G6" t="n">
         <v>973.536419032438</v>
@@ -555,13 +555,13 @@
         <v>2178.02252803899</v>
       </c>
       <c r="D7" t="n">
-        <v>3510.98309748859</v>
+        <v>3423.37699332861</v>
       </c>
       <c r="E7" t="n">
-        <v>2676.29909277662</v>
+        <v>2618.47906403103</v>
       </c>
       <c r="F7" t="n">
-        <v>2325.20078302776</v>
+        <v>2276.14136469817</v>
       </c>
       <c r="G7" t="n">
         <v>3353.29211000062</v>
@@ -584,13 +584,13 @@
         <v>2053.36821527104</v>
       </c>
       <c r="D8" t="n">
-        <v>3032.86168567219</v>
+        <v>2981.06708382959</v>
       </c>
       <c r="E8" t="n">
-        <v>2443.66931493382</v>
+        <v>2409.48487771771</v>
       </c>
       <c r="F8" t="n">
-        <v>2140.3831463666</v>
+        <v>2111.37816933475</v>
       </c>
       <c r="G8" t="n">
         <v>2939.63140235551</v>
@@ -613,13 +613,13 @@
         <v>1083.99277893185</v>
       </c>
       <c r="D9" t="n">
-        <v>1747.40172593902</v>
+        <v>1703.80053124189</v>
       </c>
       <c r="E9" t="n">
-        <v>1331.98295861694</v>
+        <v>1303.20617011683</v>
       </c>
       <c r="F9" t="n">
-        <v>1157.24278602303</v>
+        <v>1132.82611699264</v>
       </c>
       <c r="G9" t="n">
         <v>1668.91957548418</v>
@@ -642,13 +642,13 @@
         <v>150.554552629423</v>
       </c>
       <c r="D10" t="n">
-        <v>242.694684158198</v>
+        <v>236.638962672484</v>
       </c>
       <c r="E10" t="n">
-        <v>184.997633141241</v>
+        <v>181.00085696067</v>
       </c>
       <c r="F10" t="n">
-        <v>160.728164725421</v>
+        <v>157.336960693422</v>
       </c>
       <c r="G10" t="n">
         <v>231.794385483914</v>
@@ -671,13 +671,13 @@
         <v>47826.9890409128</v>
       </c>
       <c r="D11" t="n">
-        <v>77373.4265813297</v>
+        <v>75419.0165501976</v>
       </c>
       <c r="E11" t="n">
-        <v>58847.7405513476</v>
+        <v>57557.8299308005</v>
       </c>
       <c r="F11" t="n">
-        <v>51110.3978932147</v>
+        <v>50015.9282757807</v>
       </c>
       <c r="G11" t="n">
         <v>73855.4885252919</v>
@@ -700,13 +700,13 @@
         <v>33414.1153683127</v>
       </c>
       <c r="D12" t="n">
-        <v>54056.6038982428</v>
+        <v>52691.1639329259</v>
       </c>
       <c r="E12" t="n">
-        <v>41113.7148998693</v>
+        <v>40212.5245227601</v>
       </c>
       <c r="F12" t="n">
-        <v>35708.054510045</v>
+        <v>34943.4081294676</v>
       </c>
       <c r="G12" t="n">
         <v>51598.8119606724</v>
@@ -729,13 +729,13 @@
         <v>10566.634968912</v>
       </c>
       <c r="D13" t="n">
-        <v>17245.0204776593</v>
+        <v>16796.4952813794</v>
       </c>
       <c r="E13" t="n">
-        <v>13044.6593464282</v>
+        <v>12748.6327168834</v>
       </c>
       <c r="F13" t="n">
-        <v>11320.1572986623</v>
+        <v>11068.9831887455</v>
       </c>
       <c r="G13" t="n">
         <v>16437.6751243554</v>
@@ -758,13 +758,13 @@
         <v>12104.3169233432</v>
       </c>
       <c r="D14" t="n">
-        <v>19754.5570397068</v>
+        <v>19240.7613857592</v>
       </c>
       <c r="E14" t="n">
-        <v>14942.9493259457</v>
+        <v>14603.8441943403</v>
       </c>
       <c r="F14" t="n">
-        <v>12967.493621975</v>
+        <v>12679.7680557644</v>
       </c>
       <c r="G14" t="n">
         <v>18829.7248626012</v>
@@ -787,13 +787,13 @@
         <v>9186.66398416601</v>
       </c>
       <c r="D15" t="n">
-        <v>14992.8722809501</v>
+        <v>14602.9231364231</v>
       </c>
       <c r="E15" t="n">
-        <v>11341.0657750663</v>
+        <v>11083.6993396785</v>
       </c>
       <c r="F15" t="n">
-        <v>9841.77854697129</v>
+        <v>9623.40702603619</v>
       </c>
       <c r="G15" t="n">
         <v>14290.9638208016</v>
@@ -816,13 +816,13 @@
         <v>28939.962937244</v>
       </c>
       <c r="D16" t="n">
-        <v>47230.7650395595</v>
+        <v>46002.3415542257</v>
       </c>
       <c r="E16" t="n">
-        <v>35726.7908965608</v>
+        <v>34916.0313962404</v>
       </c>
       <c r="F16" t="n">
-        <v>31003.7143926048</v>
+        <v>30315.7972408179</v>
       </c>
       <c r="G16" t="n">
         <v>45019.6027659586</v>
@@ -845,13 +845,13 @@
         <v>7491.27106004953</v>
       </c>
       <c r="D17" t="n">
-        <v>12225.9473535644</v>
+        <v>11907.9630726197</v>
       </c>
       <c r="E17" t="n">
-        <v>9248.07938739311</v>
+        <v>9038.20976196959</v>
       </c>
       <c r="F17" t="n">
-        <v>8025.48465203667</v>
+        <v>7847.41345470762</v>
       </c>
       <c r="G17" t="n">
         <v>11653.5756478639</v>
@@ -874,13 +874,13 @@
         <v>23853.7841648946</v>
       </c>
       <c r="D18" t="n">
-        <v>38929.9902574026</v>
+        <v>37917.4613628154</v>
       </c>
       <c r="E18" t="n">
-        <v>29447.8317335412</v>
+        <v>28779.5626631137</v>
       </c>
       <c r="F18" t="n">
-        <v>25554.832707801</v>
+        <v>24987.8165268322</v>
       </c>
       <c r="G18" t="n">
         <v>37107.4382471457</v>
@@ -903,13 +903,13 @@
         <v>70.0453730852545</v>
       </c>
       <c r="D19" t="n">
-        <v>101.74016760367</v>
+        <v>100.164228576214</v>
       </c>
       <c r="E19" t="n">
-        <v>82.8669674117472</v>
+        <v>81.8268476536264</v>
       </c>
       <c r="F19" t="n">
-        <v>72.6929506513802</v>
+        <v>71.810424796005</v>
       </c>
       <c r="G19" t="n">
         <v>98.9034773542497</v>
@@ -932,13 +932,13 @@
         <v>7175.84912067902</v>
       </c>
       <c r="D20" t="n">
-        <v>11711.170622888</v>
+        <v>11406.5751537726</v>
       </c>
       <c r="E20" t="n">
-        <v>8858.68657108183</v>
+        <v>8657.65356146561</v>
       </c>
       <c r="F20" t="n">
-        <v>7687.56950879302</v>
+        <v>7516.99604608836</v>
       </c>
       <c r="G20" t="n">
         <v>11162.8987784802</v>

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_2070.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_2070.xlsx
@@ -32,13 +32,13 @@
     <t xml:space="preserve">MI_SA_PCDD_HighET_2070</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_LowET_2070</t>
+    <t xml:space="preserve">MI_SA_ET_Low_2070</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDec_LowET_2070</t>
+    <t xml:space="preserve">MI_SA_PCDec_ET_Low_2070</t>
   </si>
   <si>
-    <t xml:space="preserve">MI_SA_PCDD_LowET_2070</t>
+    <t xml:space="preserve">MI_SA_PCDD_ET_Low_2070</t>
   </si>
 </sst>
 </file>
@@ -439,13 +439,13 @@
         <v>9737.94320272476</v>
       </c>
       <c r="D3" t="n">
-        <v>14137.4848066464</v>
+        <v>14383.1167820514</v>
       </c>
       <c r="E3" t="n">
-        <v>11426.7994958431</v>
+        <v>11588.9165996104</v>
       </c>
       <c r="F3" t="n">
-        <v>10013.0510151784</v>
+        <v>10150.6049214053</v>
       </c>
       <c r="G3" t="n">
         <v>13940.9792263223</v>
@@ -468,13 +468,13 @@
         <v>3360.05707953442</v>
       </c>
       <c r="D4" t="n">
-        <v>4878.10977353932</v>
+        <v>4962.86457655449</v>
       </c>
       <c r="E4" t="n">
-        <v>3942.79343626534</v>
+        <v>3998.73160625534</v>
       </c>
       <c r="F4" t="n">
-        <v>3454.9824589114</v>
+        <v>3502.44514859989</v>
       </c>
       <c r="G4" t="n">
         <v>4810.30593112719</v>
@@ -497,13 +497,13 @@
         <v>903.327315776539</v>
       </c>
       <c r="D5" t="n">
-        <v>1419.83377603491</v>
+        <v>1456.16810494919</v>
       </c>
       <c r="E5" t="n">
-        <v>1086.00514176402</v>
+        <v>1109.98579884745</v>
       </c>
       <c r="F5" t="n">
-        <v>944.021764160532</v>
+        <v>964.368988352528</v>
       </c>
       <c r="G5" t="n">
         <v>1390.76631290348</v>
@@ -526,13 +526,13 @@
         <v>632.329121043577</v>
       </c>
       <c r="D6" t="n">
-        <v>993.883643224435</v>
+        <v>1019.31767346443</v>
       </c>
       <c r="E6" t="n">
-        <v>760.203599234816</v>
+        <v>776.990059193212</v>
       </c>
       <c r="F6" t="n">
-        <v>660.815234912372</v>
+        <v>675.05829184677</v>
       </c>
       <c r="G6" t="n">
         <v>973.536419032438</v>
@@ -555,13 +555,13 @@
         <v>2178.02252803899</v>
       </c>
       <c r="D7" t="n">
-        <v>3423.37699332861</v>
+        <v>3510.98309748859</v>
       </c>
       <c r="E7" t="n">
-        <v>2618.47906403103</v>
+        <v>2676.29909277662</v>
       </c>
       <c r="F7" t="n">
-        <v>2276.14136469817</v>
+        <v>2325.20078302776</v>
       </c>
       <c r="G7" t="n">
         <v>3353.29211000062</v>
@@ -584,13 +584,13 @@
         <v>2053.36821527104</v>
       </c>
       <c r="D8" t="n">
-        <v>2981.06708382959</v>
+        <v>3032.86168567219</v>
       </c>
       <c r="E8" t="n">
-        <v>2409.48487771771</v>
+        <v>2443.66931493382</v>
       </c>
       <c r="F8" t="n">
-        <v>2111.37816933475</v>
+        <v>2140.3831463666</v>
       </c>
       <c r="G8" t="n">
         <v>2939.63140235551</v>
@@ -613,13 +613,13 @@
         <v>1083.99277893185</v>
       </c>
       <c r="D9" t="n">
-        <v>1703.80053124189</v>
+        <v>1747.40172593902</v>
       </c>
       <c r="E9" t="n">
-        <v>1303.20617011683</v>
+        <v>1331.98295861694</v>
       </c>
       <c r="F9" t="n">
-        <v>1132.82611699264</v>
+        <v>1157.24278602303</v>
       </c>
       <c r="G9" t="n">
         <v>1668.91957548418</v>
@@ -642,13 +642,13 @@
         <v>150.554552629423</v>
       </c>
       <c r="D10" t="n">
-        <v>236.638962672484</v>
+        <v>242.694684158198</v>
       </c>
       <c r="E10" t="n">
-        <v>181.00085696067</v>
+        <v>184.997633141241</v>
       </c>
       <c r="F10" t="n">
-        <v>157.336960693422</v>
+        <v>160.728164725421</v>
       </c>
       <c r="G10" t="n">
         <v>231.794385483914</v>
@@ -671,13 +671,13 @@
         <v>47826.9890409128</v>
       </c>
       <c r="D11" t="n">
-        <v>75419.0165501976</v>
+        <v>77373.4265813297</v>
       </c>
       <c r="E11" t="n">
-        <v>57557.8299308005</v>
+        <v>58847.7405513476</v>
       </c>
       <c r="F11" t="n">
-        <v>50015.9282757807</v>
+        <v>51110.3978932147</v>
       </c>
       <c r="G11" t="n">
         <v>73855.4885252919</v>
@@ -700,13 +700,13 @@
         <v>33414.1153683127</v>
       </c>
       <c r="D12" t="n">
-        <v>52691.1639329259</v>
+        <v>54056.6038982428</v>
       </c>
       <c r="E12" t="n">
-        <v>40212.5245227601</v>
+        <v>41113.7148998693</v>
       </c>
       <c r="F12" t="n">
-        <v>34943.4081294676</v>
+        <v>35708.054510045</v>
       </c>
       <c r="G12" t="n">
         <v>51598.8119606724</v>
@@ -729,13 +729,13 @@
         <v>10566.634968912</v>
       </c>
       <c r="D13" t="n">
-        <v>16796.4952813794</v>
+        <v>17245.0204776593</v>
       </c>
       <c r="E13" t="n">
-        <v>12748.6327168834</v>
+        <v>13044.6593464282</v>
       </c>
       <c r="F13" t="n">
-        <v>11068.9831887455</v>
+        <v>11320.1572986623</v>
       </c>
       <c r="G13" t="n">
         <v>16437.6751243554</v>
@@ -758,13 +758,13 @@
         <v>12104.3169233432</v>
       </c>
       <c r="D14" t="n">
-        <v>19240.7613857592</v>
+        <v>19754.5570397068</v>
       </c>
       <c r="E14" t="n">
-        <v>14603.8441943403</v>
+        <v>14942.9493259457</v>
       </c>
       <c r="F14" t="n">
-        <v>12679.7680557644</v>
+        <v>12967.493621975</v>
       </c>
       <c r="G14" t="n">
         <v>18829.7248626012</v>
@@ -787,13 +787,13 @@
         <v>9186.66398416601</v>
       </c>
       <c r="D15" t="n">
-        <v>14602.9231364231</v>
+        <v>14992.8722809501</v>
       </c>
       <c r="E15" t="n">
-        <v>11083.6993396785</v>
+        <v>11341.0657750663</v>
       </c>
       <c r="F15" t="n">
-        <v>9623.40702603619</v>
+        <v>9841.77854697129</v>
       </c>
       <c r="G15" t="n">
         <v>14290.9638208016</v>
@@ -816,13 +816,13 @@
         <v>28939.962937244</v>
       </c>
       <c r="D16" t="n">
-        <v>46002.3415542257</v>
+        <v>47230.7650395595</v>
       </c>
       <c r="E16" t="n">
-        <v>34916.0313962404</v>
+        <v>35726.7908965608</v>
       </c>
       <c r="F16" t="n">
-        <v>30315.7972408179</v>
+        <v>31003.7143926048</v>
       </c>
       <c r="G16" t="n">
         <v>45019.6027659586</v>
@@ -845,13 +845,13 @@
         <v>7491.27106004953</v>
       </c>
       <c r="D17" t="n">
-        <v>11907.9630726197</v>
+        <v>12225.9473535644</v>
       </c>
       <c r="E17" t="n">
-        <v>9038.20976196959</v>
+        <v>9248.07938739311</v>
       </c>
       <c r="F17" t="n">
-        <v>7847.41345470762</v>
+        <v>8025.48465203667</v>
       </c>
       <c r="G17" t="n">
         <v>11653.5756478639</v>
@@ -874,13 +874,13 @@
         <v>23853.7841648946</v>
       </c>
       <c r="D18" t="n">
-        <v>37917.4613628154</v>
+        <v>38929.9902574026</v>
       </c>
       <c r="E18" t="n">
-        <v>28779.5626631137</v>
+        <v>29447.8317335412</v>
       </c>
       <c r="F18" t="n">
-        <v>24987.8165268322</v>
+        <v>25554.832707801</v>
       </c>
       <c r="G18" t="n">
         <v>37107.4382471457</v>
@@ -903,13 +903,13 @@
         <v>70.0453730852545</v>
       </c>
       <c r="D19" t="n">
-        <v>100.164228576214</v>
+        <v>101.74016760367</v>
       </c>
       <c r="E19" t="n">
-        <v>81.8268476536264</v>
+        <v>82.8669674117472</v>
       </c>
       <c r="F19" t="n">
-        <v>71.810424796005</v>
+        <v>72.6929506513802</v>
       </c>
       <c r="G19" t="n">
         <v>98.9034773542497</v>
@@ -932,13 +932,13 @@
         <v>7175.84912067902</v>
       </c>
       <c r="D20" t="n">
-        <v>11406.5751537726</v>
+        <v>11711.170622888</v>
       </c>
       <c r="E20" t="n">
-        <v>8657.65356146561</v>
+        <v>8858.68657108183</v>
       </c>
       <c r="F20" t="n">
-        <v>7516.99604608836</v>
+        <v>7687.56950879302</v>
       </c>
       <c r="G20" t="n">
         <v>11162.8987784802</v>

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_2070.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_2070.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">MI_SA_2070</t>
   </si>
@@ -39,6 +39,15 @@
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_ET_Low_2070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_Precip_2070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDec_Precip_2070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MI_SA_PCDD_Precip_2070</t>
   </si>
 </sst>
 </file>
@@ -398,6 +407,15 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -427,6 +445,15 @@
       <c r="I2" t="n">
         <v>35500</v>
       </c>
+      <c r="J2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="K2" t="n">
+        <v>35500</v>
+      </c>
+      <c r="L2" t="n">
+        <v>35500</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -456,6 +483,15 @@
       <c r="I3" t="n">
         <v>9903.00789019696</v>
       </c>
+      <c r="J3" t="n">
+        <v>13400.5888804312</v>
+      </c>
+      <c r="K3" t="n">
+        <v>11426.7994958431</v>
+      </c>
+      <c r="L3" t="n">
+        <v>10013.0510151784</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -485,6 +521,15 @@
       <c r="I4" t="n">
         <v>3417.01230716061</v>
       </c>
+      <c r="J4" t="n">
+        <v>4623.84536449384</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3942.79343626534</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3454.9824589114</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -514,6 +559,15 @@
       <c r="I5" t="n">
         <v>927.743984806935</v>
       </c>
+      <c r="J5" t="n">
+        <v>1310.83078929207</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1086.00514176402</v>
+      </c>
+      <c r="L5" t="n">
+        <v>944.021764160532</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -543,6 +597,15 @@
       <c r="I6" t="n">
         <v>649.420789364854</v>
       </c>
+      <c r="J6" t="n">
+        <v>917.581552504448</v>
+      </c>
+      <c r="K6" t="n">
+        <v>760.203599234816</v>
+      </c>
+      <c r="L6" t="n">
+        <v>660.815234912372</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -572,6 +635,15 @@
       <c r="I7" t="n">
         <v>2236.8938300345</v>
       </c>
+      <c r="J7" t="n">
+        <v>3160.55868084866</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2618.47906403103</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2276.14136469817</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -601,6 +673,15 @@
       <c r="I8" t="n">
         <v>2088.17418770926</v>
       </c>
+      <c r="J8" t="n">
+        <v>2825.68327830179</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2409.48487771771</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2111.37816933475</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -630,6 +711,15 @@
       <c r="I9" t="n">
         <v>1113.29278176832</v>
       </c>
+      <c r="J9" t="n">
+        <v>1572.99694715048</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1303.20617011683</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1132.82611699264</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -659,6 +749,15 @@
       <c r="I10" t="n">
         <v>154.623997467822</v>
       </c>
+      <c r="J10" t="n">
+        <v>218.471798215345</v>
+      </c>
+      <c r="K10" t="n">
+        <v>181.00085696067</v>
+      </c>
+      <c r="L10" t="n">
+        <v>157.336960693422</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -688,6 +787,15 @@
       <c r="I11" t="n">
         <v>49140.3525818335</v>
       </c>
+      <c r="J11" t="n">
+        <v>69555.7864568014</v>
+      </c>
+      <c r="K11" t="n">
+        <v>57557.8299308005</v>
+      </c>
+      <c r="L11" t="n">
+        <v>50015.9282757807</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -717,6 +825,15 @@
       <c r="I12" t="n">
         <v>34331.6910250056</v>
       </c>
+      <c r="J12" t="n">
+        <v>48594.8440369752</v>
+      </c>
+      <c r="K12" t="n">
+        <v>40212.5245227601</v>
+      </c>
+      <c r="L12" t="n">
+        <v>34943.4081294676</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -746,6 +863,15 @@
       <c r="I13" t="n">
         <v>10868.0439008121</v>
       </c>
+      <c r="J13" t="n">
+        <v>15450.9196925396</v>
+      </c>
+      <c r="K13" t="n">
+        <v>12748.6327168834</v>
+      </c>
+      <c r="L13" t="n">
+        <v>11068.9831887455</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -775,6 +901,15 @@
       <c r="I14" t="n">
         <v>12449.5876027959</v>
       </c>
+      <c r="J14" t="n">
+        <v>17699.3744239166</v>
+      </c>
+      <c r="K14" t="n">
+        <v>14603.8441943403</v>
+      </c>
+      <c r="L14" t="n">
+        <v>12679.7680557644</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -804,6 +939,15 @@
       <c r="I15" t="n">
         <v>9448.70980928812</v>
       </c>
+      <c r="J15" t="n">
+        <v>13433.0757028423</v>
+      </c>
+      <c r="K15" t="n">
+        <v>11083.6993396785</v>
+      </c>
+      <c r="L15" t="n">
+        <v>9623.40702603619</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -833,6 +977,15 @@
       <c r="I16" t="n">
         <v>29765.4635193883</v>
       </c>
+      <c r="J16" t="n">
+        <v>42317.0710982241</v>
+      </c>
+      <c r="K16" t="n">
+        <v>34916.0313962404</v>
+      </c>
+      <c r="L16" t="n">
+        <v>30315.7972408179</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -862,6 +1015,15 @@
       <c r="I17" t="n">
         <v>7704.95649684439</v>
       </c>
+      <c r="J17" t="n">
+        <v>10954.0102297855</v>
+      </c>
+      <c r="K17" t="n">
+        <v>9038.20976196959</v>
+      </c>
+      <c r="L17" t="n">
+        <v>7847.41345470762</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -891,6 +1053,15 @@
       <c r="I18" t="n">
         <v>24534.2035820571</v>
       </c>
+      <c r="J18" t="n">
+        <v>34879.874679054</v>
+      </c>
+      <c r="K18" t="n">
+        <v>28779.5626631137</v>
+      </c>
+      <c r="L18" t="n">
+        <v>24987.8165268322</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -920,6 +1091,15 @@
       <c r="I19" t="n">
         <v>71.1044041117048</v>
       </c>
+      <c r="J19" t="n">
+        <v>95.436411493847</v>
+      </c>
+      <c r="K19" t="n">
+        <v>81.8268476536264</v>
+      </c>
+      <c r="L19" t="n">
+        <v>71.810424796005</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -949,6 +1129,15 @@
       <c r="I20" t="n">
         <v>7380.53727592462</v>
       </c>
+      <c r="J20" t="n">
+        <v>10492.7887464261</v>
+      </c>
+      <c r="K20" t="n">
+        <v>8657.65356146561</v>
+      </c>
+      <c r="L20" t="n">
+        <v>7516.99604608836</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -976,6 +1165,15 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
         <v>0</v>
       </c>
     </row>

--- a/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_2070.xlsx
+++ b/1 - Scenario Processing/Annual Service Area Demand Scenarios/Output/MI_2070.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">MI_SA_2070</t>
   </si>
@@ -39,15 +39,6 @@
   </si>
   <si>
     <t xml:space="preserve">MI_SA_PCDD_ET_Low_2070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_Precip_2070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDec_Precip_2070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MI_SA_PCDD_Precip_2070</t>
   </si>
 </sst>
 </file>
@@ -407,15 +398,6 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -445,15 +427,6 @@
       <c r="I2" t="n">
         <v>35500</v>
       </c>
-      <c r="J2" t="n">
-        <v>35500</v>
-      </c>
-      <c r="K2" t="n">
-        <v>35500</v>
-      </c>
-      <c r="L2" t="n">
-        <v>35500</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -483,15 +456,6 @@
       <c r="I3" t="n">
         <v>9903.00789019696</v>
       </c>
-      <c r="J3" t="n">
-        <v>13400.5888804312</v>
-      </c>
-      <c r="K3" t="n">
-        <v>11426.7994958431</v>
-      </c>
-      <c r="L3" t="n">
-        <v>10013.0510151784</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -521,15 +485,6 @@
       <c r="I4" t="n">
         <v>3417.01230716061</v>
       </c>
-      <c r="J4" t="n">
-        <v>4623.84536449384</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3942.79343626534</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3454.9824589114</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -559,15 +514,6 @@
       <c r="I5" t="n">
         <v>927.743984806935</v>
       </c>
-      <c r="J5" t="n">
-        <v>1310.83078929207</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1086.00514176402</v>
-      </c>
-      <c r="L5" t="n">
-        <v>944.021764160532</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -597,15 +543,6 @@
       <c r="I6" t="n">
         <v>649.420789364854</v>
       </c>
-      <c r="J6" t="n">
-        <v>917.581552504448</v>
-      </c>
-      <c r="K6" t="n">
-        <v>760.203599234816</v>
-      </c>
-      <c r="L6" t="n">
-        <v>660.815234912372</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -635,15 +572,6 @@
       <c r="I7" t="n">
         <v>2236.8938300345</v>
       </c>
-      <c r="J7" t="n">
-        <v>3160.55868084866</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2618.47906403103</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2276.14136469817</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -673,15 +601,6 @@
       <c r="I8" t="n">
         <v>2088.17418770926</v>
       </c>
-      <c r="J8" t="n">
-        <v>2825.68327830179</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2409.48487771771</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2111.37816933475</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -711,15 +630,6 @@
       <c r="I9" t="n">
         <v>1113.29278176832</v>
       </c>
-      <c r="J9" t="n">
-        <v>1572.99694715048</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1303.20617011683</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1132.82611699264</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -749,15 +659,6 @@
       <c r="I10" t="n">
         <v>154.623997467822</v>
       </c>
-      <c r="J10" t="n">
-        <v>218.471798215345</v>
-      </c>
-      <c r="K10" t="n">
-        <v>181.00085696067</v>
-      </c>
-      <c r="L10" t="n">
-        <v>157.336960693422</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -787,15 +688,6 @@
       <c r="I11" t="n">
         <v>49140.3525818335</v>
       </c>
-      <c r="J11" t="n">
-        <v>69555.7864568014</v>
-      </c>
-      <c r="K11" t="n">
-        <v>57557.8299308005</v>
-      </c>
-      <c r="L11" t="n">
-        <v>50015.9282757807</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -825,15 +717,6 @@
       <c r="I12" t="n">
         <v>34331.6910250056</v>
       </c>
-      <c r="J12" t="n">
-        <v>48594.8440369752</v>
-      </c>
-      <c r="K12" t="n">
-        <v>40212.5245227601</v>
-      </c>
-      <c r="L12" t="n">
-        <v>34943.4081294676</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -863,15 +746,6 @@
       <c r="I13" t="n">
         <v>10868.0439008121</v>
       </c>
-      <c r="J13" t="n">
-        <v>15450.9196925396</v>
-      </c>
-      <c r="K13" t="n">
-        <v>12748.6327168834</v>
-      </c>
-      <c r="L13" t="n">
-        <v>11068.9831887455</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -901,15 +775,6 @@
       <c r="I14" t="n">
         <v>12449.5876027959</v>
       </c>
-      <c r="J14" t="n">
-        <v>17699.3744239166</v>
-      </c>
-      <c r="K14" t="n">
-        <v>14603.8441943403</v>
-      </c>
-      <c r="L14" t="n">
-        <v>12679.7680557644</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -939,15 +804,6 @@
       <c r="I15" t="n">
         <v>9448.70980928812</v>
       </c>
-      <c r="J15" t="n">
-        <v>13433.0757028423</v>
-      </c>
-      <c r="K15" t="n">
-        <v>11083.6993396785</v>
-      </c>
-      <c r="L15" t="n">
-        <v>9623.40702603619</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -977,15 +833,6 @@
       <c r="I16" t="n">
         <v>29765.4635193883</v>
       </c>
-      <c r="J16" t="n">
-        <v>42317.0710982241</v>
-      </c>
-      <c r="K16" t="n">
-        <v>34916.0313962404</v>
-      </c>
-      <c r="L16" t="n">
-        <v>30315.7972408179</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1015,15 +862,6 @@
       <c r="I17" t="n">
         <v>7704.95649684439</v>
       </c>
-      <c r="J17" t="n">
-        <v>10954.0102297855</v>
-      </c>
-      <c r="K17" t="n">
-        <v>9038.20976196959</v>
-      </c>
-      <c r="L17" t="n">
-        <v>7847.41345470762</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1053,15 +891,6 @@
       <c r="I18" t="n">
         <v>24534.2035820571</v>
       </c>
-      <c r="J18" t="n">
-        <v>34879.874679054</v>
-      </c>
-      <c r="K18" t="n">
-        <v>28779.5626631137</v>
-      </c>
-      <c r="L18" t="n">
-        <v>24987.8165268322</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1091,15 +920,6 @@
       <c r="I19" t="n">
         <v>71.1044041117048</v>
       </c>
-      <c r="J19" t="n">
-        <v>95.436411493847</v>
-      </c>
-      <c r="K19" t="n">
-        <v>81.8268476536264</v>
-      </c>
-      <c r="L19" t="n">
-        <v>71.810424796005</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1129,15 +949,6 @@
       <c r="I20" t="n">
         <v>7380.53727592462</v>
       </c>
-      <c r="J20" t="n">
-        <v>10492.7887464261</v>
-      </c>
-      <c r="K20" t="n">
-        <v>8657.65356146561</v>
-      </c>
-      <c r="L20" t="n">
-        <v>7516.99604608836</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1165,15 +976,6 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
         <v>0</v>
       </c>
     </row>
